--- a/biology/Botanique/Flore_en_Laponie/Flore_en_Laponie.xlsx
+++ b/biology/Botanique/Flore_en_Laponie/Flore_en_Laponie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nord de la Laponie est le domaine de la toundra, caractérisée par une couverture végétale basse, clairsemée et rabougrie, composée de lichens, de mousses, de fougères et d’arbustes nains (en particulier saule arctique Salix arctica, genévrier, bouleau nain Betula nana et pin sylvestre le plus souvent rabougri). La saison végétative est courte, en raison de la brièveté de l’été.
 Parmi les espèces végétales, on trouve la ronce petit-mûrier Rubus chamaemorus (appelée en finnois lakka).
